--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H2">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I2">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J2">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>132.1550847741916</v>
+        <v>177.1363479984742</v>
       </c>
       <c r="R2">
-        <v>1189.395762967724</v>
+        <v>1594.227131986268</v>
       </c>
       <c r="S2">
-        <v>0.001192013238080203</v>
+        <v>0.001269341429685079</v>
       </c>
       <c r="T2">
-        <v>0.00125494435331181</v>
+        <v>0.001322022756031517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H3">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I3">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J3">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>870.325320065934</v>
+        <v>896.7132424491323</v>
       </c>
       <c r="R3">
-        <v>7832.927880593405</v>
+        <v>8070.41918204219</v>
       </c>
       <c r="S3">
-        <v>0.007850165619640111</v>
+        <v>0.00642575779646156</v>
       </c>
       <c r="T3">
-        <v>0.008264607054864785</v>
+        <v>0.006692445257834778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H4">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I4">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J4">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>730.9087495532116</v>
+        <v>1045.123669774523</v>
       </c>
       <c r="R4">
-        <v>6578.178745978904</v>
+        <v>9406.11302797071</v>
       </c>
       <c r="S4">
-        <v>0.006592655188294518</v>
+        <v>0.007489252139265828</v>
       </c>
       <c r="T4">
-        <v>0.006940707651205922</v>
+        <v>0.007800077679827688</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H5">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I5">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J5">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>322.8158234270649</v>
+        <v>319.2445613281324</v>
       </c>
       <c r="R5">
-        <v>1936.894940562389</v>
+        <v>1915.467367968794</v>
       </c>
       <c r="S5">
-        <v>0.002911736129141888</v>
+        <v>0.002287674734600082</v>
       </c>
       <c r="T5">
-        <v>0.002043638832672506</v>
+        <v>0.001588413217968212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H6">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I6">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J6">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>752.4465115137326</v>
+        <v>1211.438557043142</v>
       </c>
       <c r="R6">
-        <v>6772.018603623593</v>
+        <v>10902.94701338828</v>
       </c>
       <c r="S6">
-        <v>0.006786921624727352</v>
+        <v>0.0086810480590128</v>
       </c>
       <c r="T6">
-        <v>0.007145230184724119</v>
+        <v>0.009041336563847497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I7">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J7">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>4885.89351815522</v>
+        <v>6356.174943668865</v>
       </c>
       <c r="R7">
-        <v>43973.04166339697</v>
+        <v>57205.57449301979</v>
       </c>
       <c r="S7">
-        <v>0.04406981209571024</v>
+        <v>0.04554771666848752</v>
       </c>
       <c r="T7">
-        <v>0.046396432585007</v>
+        <v>0.04743807813470314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I8">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J8">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>32176.71758345347</v>
@@ -948,10 +948,10 @@
         <v>289590.4582510812</v>
       </c>
       <c r="S8">
-        <v>0.290227753120362</v>
+        <v>0.2305751538939124</v>
       </c>
       <c r="T8">
-        <v>0.3055500294102155</v>
+        <v>0.24014468707513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I9">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J9">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>27022.3603420697</v>
+        <v>37502.12171537655</v>
       </c>
       <c r="R9">
-        <v>243201.2430786273</v>
+        <v>337519.095438389</v>
       </c>
       <c r="S9">
-        <v>0.2437364502997241</v>
+        <v>0.2687364695744429</v>
       </c>
       <c r="T9">
-        <v>0.2566042659832632</v>
+        <v>0.2798898073004111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I10">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J10">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>11934.79419982374</v>
+        <v>11455.43703787949</v>
       </c>
       <c r="R10">
-        <v>71608.76519894243</v>
+        <v>68732.62222727697</v>
       </c>
       <c r="S10">
-        <v>0.1076495293711997</v>
+        <v>0.08208852102705994</v>
       </c>
       <c r="T10">
-        <v>0.07555518384378393</v>
+        <v>0.05699695409961226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I11">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J11">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>27818.63096410656</v>
+        <v>43469.99071098785</v>
       </c>
       <c r="R11">
-        <v>250367.678676959</v>
+        <v>391229.9163988907</v>
       </c>
       <c r="S11">
-        <v>0.2509186569033073</v>
+        <v>0.3115016244884854</v>
       </c>
       <c r="T11">
-        <v>0.2641656498115182</v>
+        <v>0.3244298393512077</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H12">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I12">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J12">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>4.843756385826222</v>
+        <v>11.02120127202756</v>
       </c>
       <c r="R12">
-        <v>43.593807472436</v>
+        <v>99.19081144824801</v>
       </c>
       <c r="S12">
-        <v>4.368974333303853E-05</v>
+        <v>7.89768307722081E-05</v>
       </c>
       <c r="T12">
-        <v>4.599629848217335E-05</v>
+        <v>8.2254596784108E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H13">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I13">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J13">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>31.89921775631056</v>
+        <v>55.79237259881556</v>
       </c>
       <c r="R13">
-        <v>287.092959806795</v>
+        <v>502.13135338934</v>
       </c>
       <c r="S13">
-        <v>0.0002877247584903444</v>
+        <v>0.0003998025859758221</v>
       </c>
       <c r="T13">
-        <v>0.0003029148917481797</v>
+        <v>0.00041639554513825</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H14">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I14">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J14">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>26.78931294360622</v>
+        <v>65.02628313667334</v>
       </c>
       <c r="R14">
-        <v>241.103816492456</v>
+        <v>585.2365482300601</v>
       </c>
       <c r="S14">
-        <v>0.0002416344079564932</v>
+        <v>0.0004659718693338004</v>
       </c>
       <c r="T14">
-        <v>0.0002543912484723936</v>
+        <v>0.0004853110443914714</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H15">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I15">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J15">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>11.83186563606183</v>
+        <v>19.86299596414733</v>
       </c>
       <c r="R15">
-        <v>70.99119381637099</v>
+        <v>119.177975784884</v>
       </c>
       <c r="S15">
-        <v>0.0001067211336852493</v>
+        <v>0.0001423362510283711</v>
       </c>
       <c r="T15">
-        <v>7.490357758835958E-05</v>
+        <v>9.882907701432024E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H16">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I16">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J16">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>27.57871633440978</v>
+        <v>75.37418670267557</v>
       </c>
       <c r="R16">
-        <v>248.208447009688</v>
+        <v>678.3676803240801</v>
       </c>
       <c r="S16">
-        <v>0.0002487546734659971</v>
+        <v>0.0005401239157947884</v>
       </c>
       <c r="T16">
-        <v>0.0002618874210900937</v>
+        <v>0.0005625406144150809</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H17">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I17">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J17">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>192.5858541046267</v>
+        <v>223.7676782379437</v>
       </c>
       <c r="R17">
-        <v>1155.51512462776</v>
+        <v>1342.606069427662</v>
       </c>
       <c r="S17">
-        <v>0.001737087059131675</v>
+        <v>0.00160349689841358</v>
       </c>
       <c r="T17">
-        <v>0.001219196524796558</v>
+        <v>0.001113364426283449</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H18">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I18">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J18">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>1268.300386626617</v>
+        <v>1132.773948290889</v>
       </c>
       <c r="R18">
-        <v>7609.802319759699</v>
+        <v>6796.643689745334</v>
       </c>
       <c r="S18">
-        <v>0.0114398235474963</v>
+        <v>0.008117345306486466</v>
       </c>
       <c r="T18">
-        <v>0.008029184858682479</v>
+        <v>0.005636159015363402</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H19">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I19">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J19">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>1065.132575456827</v>
+        <v>1320.253576973252</v>
       </c>
       <c r="R19">
-        <v>6390.795452740959</v>
+        <v>7921.521461839515</v>
       </c>
       <c r="S19">
-        <v>0.009607289287615417</v>
+        <v>0.009460805655519679</v>
       </c>
       <c r="T19">
-        <v>0.006742997508732251</v>
+        <v>0.006568970898077836</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H20">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I20">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J20">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>470.430337049965</v>
+        <v>403.2860284502552</v>
       </c>
       <c r="R20">
-        <v>1881.72134819986</v>
+        <v>1613.144113801021</v>
       </c>
       <c r="S20">
-        <v>0.004243190417653912</v>
+        <v>0.002889907518752015</v>
       </c>
       <c r="T20">
-        <v>0.001985424577717939</v>
+        <v>0.001337709780755139</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H21">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I21">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J21">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>1096.518944659013</v>
+        <v>1530.351033542837</v>
       </c>
       <c r="R21">
-        <v>6579.11366795408</v>
+        <v>9182.10620125702</v>
       </c>
       <c r="S21">
-        <v>0.009890388251595545</v>
+        <v>0.01096634310680287</v>
       </c>
       <c r="T21">
-        <v>0.006941694097509218</v>
+        <v>0.007614318626754152</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H22">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I22">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J22">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>1.137238493334667</v>
+        <v>4.960116932070444</v>
       </c>
       <c r="R22">
-        <v>10.235146440012</v>
+        <v>44.641052388634</v>
       </c>
       <c r="S22">
-        <v>1.025767068460193E-05</v>
+        <v>3.554370398340658E-05</v>
       </c>
       <c r="T22">
-        <v>1.079921387828341E-05</v>
+        <v>3.701887010130098E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H23">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I23">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J23">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>7.489439073751668</v>
+        <v>25.10948536164944</v>
       </c>
       <c r="R23">
-        <v>67.404951663765</v>
+        <v>225.985368254845</v>
       </c>
       <c r="S23">
-        <v>6.755328814597807E-05</v>
+        <v>0.0001799320715807418</v>
       </c>
       <c r="T23">
-        <v>7.111969464615692E-05</v>
+        <v>0.000187399770941573</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H24">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I24">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J24">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>6.289713078594667</v>
+        <v>29.26522799601166</v>
       </c>
       <c r="R24">
-        <v>56.60741770735201</v>
+        <v>263.387051964105</v>
       </c>
       <c r="S24">
-        <v>5.673199231207482E-05</v>
+        <v>0.000209711709450153</v>
       </c>
       <c r="T24">
-        <v>5.972709960740974E-05</v>
+        <v>0.0002184153495786834</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H25">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I25">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J25">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>2.7779376123595</v>
+        <v>8.939386929941167</v>
       </c>
       <c r="R25">
-        <v>16.667625674157</v>
+        <v>53.636321579647</v>
       </c>
       <c r="S25">
-        <v>2.505645858539152E-05</v>
+        <v>6.405875651369624E-05</v>
       </c>
       <c r="T25">
-        <v>1.758619239630324E-05</v>
+        <v>4.447825297626941E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H26">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I26">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J26">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>6.475052689277335</v>
+        <v>33.92232574990445</v>
       </c>
       <c r="R26">
-        <v>58.27547420349601</v>
+        <v>305.30093174914</v>
       </c>
       <c r="S26">
-        <v>5.84037196606809E-05</v>
+        <v>0.0002430840081788157</v>
       </c>
       <c r="T26">
-        <v>6.148708408525742E-05</v>
+        <v>0.0002531726948512784</v>
       </c>
     </row>
   </sheetData>
